--- a/src/main/resources/files/student_sheet/student_sheet.xlsx
+++ b/src/main/resources/files/student_sheet/student_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_0_dev\projects\poc-excel-compare\src\main\resources\files\student_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_0_dev\projects\poc-excel-compare\src\main\resources\files\instructor_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E260F3-FEE5-4D15-8F76-A79451F575FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7ECEC3-F7AF-42E8-B292-A6C99C369295}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +283,11 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="42"/>
       </patternFill>
@@ -290,6 +295,12 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+        <bgColor indexed="48"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,7 +562,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="661">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -826,549 +837,9 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1719,20 +1190,20 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="26.69921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="9.69921875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="2.19921875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="6.19921875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.59765625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="6.19921875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="13.09765625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="10.19921875" collapsed="true"/>
-    <col min="9" max="16384" style="4" width="8.69921875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="26.69921875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="4" width="9.69921875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="2.19921875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="4" width="6.19921875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.59765625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="4" width="6.19921875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="4" width="13.09765625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="4" width="10.19921875" collapsed="false"/>
+    <col min="9" max="16384" style="4" width="8.69921875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
@@ -2236,7 +1707,7 @@
       <c r="A41" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="119">
         <f>B43-B42</f>
         <v>67</v>
       </c>
@@ -2549,7 +2020,10 @@
       <c r="D61" s="65"/>
       <c r="E61" s="80"/>
       <c r="F61" s="65"/>
-      <c r="G61" s="102"/>
+      <c r="G61" s="102">
+        <f>E42*E49</f>
+        <v>2450</v>
+      </c>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="1:8" ht="15.6" customHeight="1">
@@ -2561,8 +2035,14 @@
       <c r="D62" s="65"/>
       <c r="E62" s="80"/>
       <c r="F62" s="104"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="105"/>
+      <c r="G62" s="47">
+        <f>G42*G49</f>
+        <v>8400</v>
+      </c>
+      <c r="H62" s="105">
+        <f>SUM(G61:G62)</f>
+        <v>10850</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" customHeight="1" thickBot="1">
       <c r="A63" s="82" t="s">
@@ -2574,7 +2054,10 @@
       <c r="E63" s="80"/>
       <c r="F63" s="106"/>
       <c r="G63" s="80"/>
-      <c r="H63" s="100"/>
+      <c r="H63" s="100">
+        <f>SUM(H58:H62)</f>
+        <v>74500</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="15.6" customHeight="1" thickTop="1"/>
   </sheetData>
@@ -2602,19 +2085,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="26.69921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="9.69921875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="2.19921875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="6.19921875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.59765625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="6.19921875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="13.09765625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="10.19921875" collapsed="true"/>
-    <col min="9" max="16384" style="4" width="8.69921875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="26.69921875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="4" width="9.69921875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="2.19921875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="4" width="6.19921875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.59765625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="4" width="6.19921875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="4" width="13.09765625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="4" width="10.19921875" collapsed="false"/>
+    <col min="9" max="16384" style="4" width="8.69921875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
-      <c r="A1" s="659" t="s">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="2"/>
@@ -2704,7 +2187,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="198">
+      <c r="E10" s="54">
         <v>32</v>
       </c>
     </row>
@@ -2944,7 +2427,7 @@
       <c r="A36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="200">
+      <c r="B36" s="26">
         <f>E6</f>
         <v>30</v>
       </c>
@@ -2959,7 +2442,7 @@
       <c r="A37" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="203">
+      <c r="B37" s="26">
         <f>E9</f>
         <v>72</v>
       </c>
@@ -2974,7 +2457,7 @@
       <c r="A38" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="209">
+      <c r="B38" s="29">
         <f>SUM(B36:B37)</f>
         <v>102</v>
       </c>
@@ -3011,22 +2494,22 @@
       <c r="A41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="218">
+      <c r="B41" s="26">
         <f>B43-B42</f>
         <v>70</v>
       </c>
       <c r="C41" s="27"/>
-      <c r="D41" s="120">
+      <c r="D41" s="30">
         <v>1</v>
       </c>
-      <c r="E41" s="140">
+      <c r="E41" s="26">
         <f>B41*D41</f>
         <v>70</v>
       </c>
-      <c r="F41" s="129">
+      <c r="F41" s="31">
         <v>1</v>
       </c>
-      <c r="G41" s="158">
+      <c r="G41" s="26">
         <f>B41*F41</f>
         <v>70</v>
       </c>
@@ -3036,24 +2519,24 @@
       <c r="A42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="122">
+      <c r="B42" s="26">
         <f>E10</f>
         <v>32</v>
       </c>
       <c r="C42" s="27"/>
-      <c r="D42" s="143">
+      <c r="D42" s="30">
         <f>E11</f>
         <v>0.2</v>
       </c>
-      <c r="E42" s="131">
+      <c r="E42" s="26">
         <f>D42*B42</f>
         <v>6.4</v>
       </c>
-      <c r="F42" s="161">
+      <c r="F42" s="31">
         <f>E12</f>
         <v>0.4</v>
       </c>
-      <c r="G42" s="149">
+      <c r="G42" s="26">
         <f>B42*F42</f>
         <v>12.8</v>
       </c>
@@ -3063,18 +2546,18 @@
       <c r="A43" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="125">
+      <c r="B43" s="29">
         <f>B38</f>
         <v>102</v>
       </c>
       <c r="C43" s="27"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="164">
+      <c r="D43" s="32"/>
+      <c r="E43" s="29">
         <f>SUM(E41:E42)</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="F43" s="151"/>
-      <c r="G43" s="170">
+      <c r="F43" s="26"/>
+      <c r="G43" s="29">
         <f>SUM(G41:G42)</f>
         <v>82.8</v>
       </c>
@@ -3123,12 +2606,12 @@
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="28"/>
-      <c r="E47" s="176">
+      <c r="E47" s="34">
         <f>E16+E20</f>
         <v>25900</v>
       </c>
       <c r="F47" s="35"/>
-      <c r="G47" s="182">
+      <c r="G47" s="34">
         <f>E17+E21</f>
         <v>48600</v>
       </c>
@@ -3140,11 +2623,11 @@
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="28"/>
-      <c r="E48" s="173">
+      <c r="E48" s="37">
         <f>E43</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="G48" s="179">
+      <c r="G48" s="37">
         <f>G43</f>
         <v>82.8</v>
       </c>
@@ -3156,16 +2639,16 @@
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="28"/>
-      <c r="E49" s="185">
+      <c r="E49" s="38">
         <f>E47/E48</f>
         <v>339.00523560209422</v>
       </c>
       <c r="F49" s="39"/>
-      <c r="G49" s="191">
+      <c r="G49" s="38">
         <f>G47/G48</f>
         <v>586.95652173913049</v>
       </c>
-      <c r="H49" s="188">
+      <c r="H49" s="40">
         <f>SUM(E49:G49)</f>
         <v>925.96175734122471</v>
       </c>
@@ -3202,7 +2685,7 @@
       <c r="E52" s="24"/>
       <c r="F52" s="16"/>
       <c r="G52" s="24"/>
-      <c r="H52" s="194">
+      <c r="H52" s="41">
         <f>E16+E17</f>
         <v>17400</v>
       </c>
@@ -3217,7 +2700,7 @@
       <c r="E53" s="24"/>
       <c r="F53" s="16"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="212">
+      <c r="H53" s="26">
         <f>E20+E21</f>
         <v>57100</v>
       </c>
@@ -3232,7 +2715,7 @@
       <c r="E54" s="24"/>
       <c r="F54" s="16"/>
       <c r="G54" s="24"/>
-      <c r="H54" s="206">
+      <c r="H54" s="42">
         <f>SUM(H52:H53)</f>
         <v>74500</v>
       </c>
@@ -3281,7 +2764,7 @@
       <c r="E58" s="24"/>
       <c r="F58" s="16"/>
       <c r="G58" s="24"/>
-      <c r="H58" s="215">
+      <c r="H58" s="41">
         <f>H49*G41</f>
         <v>64817.323013885733</v>
       </c>
@@ -3317,7 +2800,7 @@
       <c r="D61" s="16"/>
       <c r="E61" s="24"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="146">
+      <c r="G61" s="44">
         <f>E42*E49</f>
         <v>2169.633507853403</v>
       </c>
@@ -3332,11 +2815,11 @@
       <c r="D62" s="16"/>
       <c r="E62" s="24"/>
       <c r="F62" s="46"/>
-      <c r="G62" s="137">
+      <c r="G62" s="47">
         <f>G42*G49</f>
         <v>7513.0434782608709</v>
       </c>
-      <c r="H62" s="167">
+      <c r="H62" s="48">
         <f>SUM(G61:G62)</f>
         <v>9682.6769861142748</v>
       </c>
@@ -3351,7 +2834,7 @@
       <c r="E63" s="24"/>
       <c r="F63" s="49"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="155">
+      <c r="H63" s="42">
         <f>SUM(H58:H62)</f>
         <v>74500</v>
       </c>
@@ -3393,15 +2876,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="26.69921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="9.69921875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="2.19921875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="6.19921875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.59765625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="6.19921875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="13.09765625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="10.19921875" collapsed="true"/>
-    <col min="9" max="16384" style="4" width="8.69921875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="26.69921875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="4" width="9.69921875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="2.19921875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="4" width="6.19921875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.59765625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="4" width="6.19921875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="4" width="13.09765625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="4" width="10.19921875" collapsed="false"/>
+    <col min="9" max="16384" style="4" width="8.69921875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
